--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_solar.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_solar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001033057851239669</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.007669616519174041</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01514023330851326</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02107728337236535</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -506,25 +506,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002066115702479339</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.2109374999999996</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.003539823008849557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1180654338549077</v>
+        <v>0.03747828245222147</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01053864168618267</v>
+        <v>0.2433173406442785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02054794520547945</v>
+        <v>0.1335453100158984</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1830985915492959</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1202830188679245</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -574,25 +574,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2414634146341476</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08987603305785105</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.05132743362831858</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.02084884586746091</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001180637544273908</v>
+        <v>0.0009319664492078285</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.1459904043865669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -617,16 +617,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.02208984859766693</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04098360655737708</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09931506849315068</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1233521657250469</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -676,25 +676,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2869918699186997</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003099173553719008</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.3370535714285727</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.001769911504424779</v>
       </c>
       <c r="G8" t="n">
-        <v>0.357041251778095</v>
+        <v>0.03772648299826267</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02224824355971898</v>
+        <v>0.1720356408498981</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04680365296803653</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.08474576271186439</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02789256198347108</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.02123893805309734</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1511216056670601</v>
+        <v>0.1621621621621618</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08789954337899543</v>
+        <v>0.1462639109697935</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.04237288135593222</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04694835680751173</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1344339622641509</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -781,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01859504132231405</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.01238938053097345</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009445100354191263</v>
+        <v>0.004659832246039142</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0228310502283105</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.01883239171374764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002066115702479339</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.007079646017699115</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05312868949232588</v>
+        <v>0.03261882572227402</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -849,22 +849,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01136363636363636</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.006489675516224189</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.01216182675601886</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02868852459016396</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05934959349593505</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01549586776859504</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.05003427004797804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -945,28 +945,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1267123287671233</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.1045197740112993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2933884297520664</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.1675516224188781</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.01389923057830726</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3341204250295151</v>
+        <v>0.2637465051258142</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03278688524590166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.02357905187391414</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05562060889929747</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02054794520547945</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04752066115702475</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.02713864306784661</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.006205013651030035</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01463700234192038</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01756198347107438</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.01238938053097345</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1092082402581289</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2599531615925061</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.111570247933884</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.06371681415929203</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1002730206006457</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2365339578454335</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1186,25 +1186,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2455284552845541</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01652892561983471</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.258928571428571</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.01533923303834808</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4423897581792334</v>
+        <v>0.1015140233308517</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.136416861826698</v>
+        <v>0.1336531871144626</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03310502283105023</v>
+        <v>0.007949125596184421</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.02730696798493408</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01179245283018868</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02169421487603306</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.03303834808259587</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1227863046044862</v>
+        <v>0.06430568499534024</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001033057851239669</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.0005899705014749262</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01859504132231405</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.01061946902654867</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0425029515938607</v>
+        <v>0.03355079217148185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1359,22 +1359,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03099173553719008</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.02060064532141971</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04859484777517568</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1393,22 +1393,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06301652892561974</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.0359882005899705</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.000744601638123604</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001756440281030445</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1002066115702477</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.05722713864306785</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01298701298701298</v>
+        <v>0.01025163094128611</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.07191780821917808</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.05932203389830516</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05903187721369543</v>
+        <v>0.04659832246039147</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1489,25 +1489,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1780821917808213</v>
+        <v>0.6073131955484908</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.1468926553672317</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7699530516431909</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.577830188679249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03659976387249116</v>
+        <v>0.0288909599254427</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2408675799086744</v>
+        <v>0.1049284578696345</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.1986817325800382</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003099173553719008</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1556603773584906</v>
+        <v>0.001769911504424779</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1227863046044862</v>
+        <v>0.09692451071761429</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.01067262347977165</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02517564402810306</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0182648401826484</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.01506591337099811</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1609,182 +1609,12 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05430932703659979</v>
+        <v>0.04287045666356015</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
